--- a/dist/document/dest/2020/10/doctors/15.xlsx
+++ b/dist/document/dest/2020/10/doctors/15.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>332</v>
       </c>
-      <c r="C2" s="1">
-        <v>1718100</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>12100</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>740</v>
       </c>
-      <c r="C4" s="1">
-        <v>4965400</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>120</v>
       </c>
-      <c r="C5" s="1">
-        <v>1002000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>208</v>
       </c>
-      <c r="C6" s="1">
-        <v>1716000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>120</v>
       </c>
-      <c r="C7" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>682</v>
       </c>
-      <c r="C8" s="1">
-        <v>12548800</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>482</v>
       </c>
-      <c r="C9" s="1">
-        <v>3605360</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>446</v>
       </c>
-      <c r="C10" s="1">
-        <v>1665810</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>334</v>
       </c>
-      <c r="C11" s="1">
-        <v>2388100</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>215</v>
       </c>
-      <c r="C12" s="1">
-        <v>543950</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>48</v>
       </c>
-      <c r="C13" s="1">
-        <v>633600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>96600</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>37</v>
       </c>
-      <c r="C15" s="1">
-        <v>236060</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>70</v>
       </c>
-      <c r="C16" s="1">
-        <v>6006000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
-        <v>50200</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>60</v>
       </c>
-      <c r="C18" s="1">
-        <v>216600</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>120</v>
       </c>
-      <c r="C19" s="1">
-        <v>298800</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>239</v>
       </c>
-      <c r="C20" s="1">
-        <v>797065</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
-        <v>40300</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" s="1">
-        <v>90860</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>252</v>
       </c>
-      <c r="C23" s="1">
-        <v>753480</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>392</v>
       </c>
-      <c r="C24" s="1">
-        <v>6252400</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>178</v>
       </c>
-      <c r="C25" s="1">
-        <v>250980</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>14</v>
       </c>
-      <c r="C26" s="1">
-        <v>191100</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>432</v>
       </c>
-      <c r="C27" s="1">
-        <v>4276800</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>1455</v>
       </c>
-      <c r="C28" s="1">
-        <v>6023700</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>161</v>
       </c>
-      <c r="C29" s="1">
-        <v>10143000</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
-        <v>255000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>60</v>
       </c>
-      <c r="C31" s="1">
-        <v>245400</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>923</v>
       </c>
-      <c r="C32" s="1">
-        <v>2335190</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>47</v>
       </c>
-      <c r="C33" s="1">
-        <v>1023660</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>14</v>
       </c>
-      <c r="C34" s="1">
-        <v>56350</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>150</v>
       </c>
-      <c r="C35" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>178</v>
       </c>
-      <c r="C36" s="1">
-        <v>3132800</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>984</v>
       </c>
-      <c r="C37" s="1">
-        <v>5953200</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>535</v>
       </c>
-      <c r="C38" s="1">
-        <v>3014725</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>30</v>
       </c>
-      <c r="C39" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>180</v>
       </c>
-      <c r="C40" s="1">
-        <v>304200</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>719</v>
       </c>
-      <c r="C41" s="1">
-        <v>3968880</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>313</v>
       </c>
-      <c r="C42" s="1">
-        <v>1824790</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>331</v>
       </c>
-      <c r="C43" s="1">
-        <v>5097400</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>664</v>
       </c>
-      <c r="C44" s="1">
-        <v>3207120</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>340</v>
       </c>
-      <c r="C45" s="1">
-        <v>2431000</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>2338</v>
       </c>
-      <c r="C46" s="1">
-        <v>4301920</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>7</v>
       </c>
-      <c r="C47" s="1">
-        <v>53900</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>154</v>
       </c>
-      <c r="C48" s="1">
-        <v>328020</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>892</v>
       </c>
-      <c r="C49" s="1">
-        <v>5985320</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>614</v>
       </c>
-      <c r="C50" s="1">
-        <v>2471350</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>30</v>
       </c>
-      <c r="C51" s="1">
-        <v>228300</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>294</v>
       </c>
-      <c r="C52" s="1">
-        <v>2474010</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>30</v>
       </c>
-      <c r="C53" s="1">
-        <v>120750</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>164</v>
       </c>
-      <c r="C54" s="1">
-        <v>546940</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>807</v>
       </c>
-      <c r="C55" s="1">
-        <v>13981275</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>143</v>
       </c>
-      <c r="C56" s="1">
-        <v>1651650</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>1890</v>
       </c>
-      <c r="C57" s="1">
-        <v>16632000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>848</v>
       </c>
-      <c r="C58" s="1">
-        <v>2438000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>296</v>
       </c>
-      <c r="C59" s="1">
-        <v>4884000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>97</v>
       </c>
-      <c r="C60" s="1">
-        <v>853600</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>157</v>
       </c>
-      <c r="C61" s="1">
-        <v>1208900</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>146</v>
       </c>
-      <c r="C62" s="1">
-        <v>1268740</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>500</v>
       </c>
-      <c r="C63" s="1">
-        <v>2702500</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="1">
-        <v>241800</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>2</v>
       </c>
-      <c r="C65" s="1">
-        <v>654400</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>9</v>
       </c>
-      <c r="C66" s="1">
-        <v>38700</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>60</v>
       </c>
-      <c r="C67" s="1">
-        <v>528000</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>474</v>
       </c>
-      <c r="C68" s="1">
-        <v>6778200</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
-        <v>5733</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>29</v>
       </c>
-      <c r="C70" s="1">
-        <v>150075</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>206</v>
       </c>
-      <c r="C71" s="1">
-        <v>829150</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>1350</v>
       </c>
-      <c r="C72" s="1">
-        <v>10246500</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>120</v>
       </c>
-      <c r="C73" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>364</v>
       </c>
-      <c r="C74" s="1">
-        <v>1506960</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>2188</v>
       </c>
-      <c r="C75" s="1">
-        <v>4277540</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>130</v>
       </c>
-      <c r="C76" s="1">
-        <v>10725000</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>350</v>
       </c>
-      <c r="C77" s="1">
-        <v>1589000</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>142</v>
       </c>
-      <c r="C78" s="1">
-        <v>408250</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>2320</v>
       </c>
-      <c r="C79" s="1">
-        <v>19905600</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>156</v>
       </c>
-      <c r="C80" s="1">
-        <v>3946800</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>420</v>
       </c>
-      <c r="C81" s="1">
-        <v>4093320</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>1</v>
       </c>
-      <c r="C82" s="1">
-        <v>69500</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>2988</v>
       </c>
-      <c r="C83" s="1">
-        <v>34840080</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>951</v>
       </c>
-      <c r="C84" s="1">
-        <v>9205680</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1318,7 +1069,7 @@
         <v>34398</v>
       </c>
       <c r="C85" s="1">
-        <v>273123543</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/15.xlsx
+++ b/dist/document/dest/2020/10/doctors/15.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,679 +402,3843 @@
         <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>332</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="1">
+        <v>217350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Albenca 400mg (Albendazole)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B4" s="1">
-        <v>740</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="1">
+        <v>424350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amlor 5mg Pfizer (Amlodipine)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B5" s="1">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B6" s="1">
-        <v>208</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B7" s="1">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B8" s="1">
-        <v>682</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6050</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B9" s="1">
-        <v>482</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6050</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B10" s="1">
-        <v>446</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>295240</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B11" s="1">
-        <v>334</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Carvedol (Carvedilol 6.25mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B12" s="1">
-        <v>215</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B13" s="1">
-        <v>48</v>
+        <v>388</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2603480</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B14" s="1">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>201300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Cenoxib (Celecoxib 200mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B15" s="1">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>201300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>84700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
+        <v>Amlor 5mg Pfizer (Amlodipine)</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1002000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Amlor 5mg Pfizer (Amlodipine)</v>
       </c>
       <c r="B18" s="1">
         <v>60</v>
       </c>
+      <c r="C18" s="1">
+        <v>501000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>123750</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>239</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>57750</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Efferalgan Sủi 500mg</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>14</v>
+        <v>261</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2153250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>252</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B24" s="1">
-        <v>392</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B25" s="1">
-        <v>178</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Flagentyl (Secnidazol 500mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B26" s="1">
         <v>14</v>
       </c>
+      <c r="C26" s="1">
+        <v>64400</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>432</v>
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>48510</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B28" s="1">
-        <v>1455</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="1">
+        <v>699200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B29" s="1">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B30" s="1">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B31" s="1">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="1">
+        <v>772800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B32" s="1">
-        <v>923</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Goldesome (Esomeprazole 40mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B33" s="1">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1214400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B34" s="1">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1306400</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B35" s="1">
-        <v>150</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B36" s="1">
-        <v>178</v>
+        <v>300</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5520000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Katovastin (Atorvastatin 20mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B37" s="1">
-        <v>984</v>
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>257600</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>535</v>
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>224400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B39" s="1">
         <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>224400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1795200</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>719</v>
+        <v>332</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2483360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>313</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>112050</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>331</v>
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>26145</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>664</v>
+        <v>150</v>
+      </c>
+      <c r="C44" s="1">
+        <v>560250</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>340</v>
+        <v>22</v>
+      </c>
+      <c r="C45" s="1">
+        <v>82170</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>2338</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>56025</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>7</v>
+        <v>207</v>
+      </c>
+      <c r="C47" s="1">
+        <v>773145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Myomethol (Methocarbamol 500mg)</v>
+        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>154</v>
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>214500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Newbutin (Trimebutine 300mg)</v>
+        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>892</v>
+        <v>110</v>
+      </c>
+      <c r="C49" s="1">
+        <v>786500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>614</v>
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>214500</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B51" s="1">
         <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>77400</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>294</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C53" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>164</v>
+        <v>29</v>
+      </c>
+      <c r="C54" s="1">
+        <v>73370</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Pitaterol (Pitavastatin 2mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>807</v>
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>37950</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="C56" s="1">
+        <v>394680</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>1890</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>17710</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Reinal (Flunarizil 10mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>848</v>
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>52800</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Reprat (Pantoprazole 40mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>296</v>
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="C60" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B61" s="1">
-        <v>157</v>
+        <v>14</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1201200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B62" s="1">
-        <v>146</v>
+        <v>42</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3603600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B63" s="1">
-        <v>500</v>
+        <v>58</v>
+      </c>
+      <c r="C63" s="1">
+        <v>238380</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Seretide 25/125 (Salmeterol, fluticasone propionate)</v>
+        <v>Distocide (Praziquantel 600mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>18480</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Seretide 25/250 (Salmeterol, fluticasone propionate)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="C65" s="1">
+        <v>186750</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Smecta (Diosmectite 3g)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="C66" s="1">
+        <v>136735</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C67" s="1">
+        <v>250800</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>474</v>
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Stadnolol (Atenolol 50mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C69" s="1">
+        <v>66000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>66000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="C71" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>1350</v>
+        <v>68</v>
+      </c>
+      <c r="C72" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>120</v>
+        <v>168</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1108800</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Timiroitin</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>364</v>
+        <v>44</v>
+      </c>
+      <c r="C74" s="1">
+        <v>290400</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>2188</v>
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>64900</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>155760</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>350</v>
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>64900</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B78" s="1">
-        <v>142</v>
+        <v>30</v>
+      </c>
+      <c r="C78" s="1">
+        <v>313500</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>2320</v>
+        <v>54</v>
+      </c>
+      <c r="C79" s="1">
+        <v>161460</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Virclath (Clarithromycin 500mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>156</v>
+        <v>15</v>
+      </c>
+      <c r="C80" s="1">
+        <v>239250</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>420</v>
+        <v>104</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1658800</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Voltaren 1% Emulgel 20g</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C82" s="1">
+        <v>239250</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>2988</v>
+        <v>27</v>
+      </c>
+      <c r="C83" s="1">
+        <v>430650</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>951</v>
+        <v>7</v>
+      </c>
+      <c r="C84" s="1">
+        <v>33810</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+      </c>
+      <c r="B85" s="1">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1">
+        <v>19740</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Flagentyl (Secnidazol 500mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1">
+        <v>136500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44</v>
+      </c>
+      <c r="C89" s="1">
+        <v>435600</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>260</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2574000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>30</v>
+      </c>
+      <c r="C96" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>450</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>14</v>
+      </c>
+      <c r="C99" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>35</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2205000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>56</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3528000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>60</v>
+      </c>
+      <c r="C103" s="1">
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>60</v>
+      </c>
+      <c r="C104" s="1">
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>120</v>
+      </c>
+      <c r="C105" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>270</v>
+      </c>
+      <c r="C106" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Goldagtin (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>30</v>
+      </c>
+      <c r="C107" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>7</v>
+      </c>
+      <c r="C109" s="1">
+        <v>152460</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1">
+        <v>304920</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45</v>
+      </c>
+      <c r="C111" s="1">
+        <v>980100</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>28</v>
+      </c>
+      <c r="C113" s="1">
+        <v>492800</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>196</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3449600</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>15</v>
+      </c>
+      <c r="C115" s="1">
+        <v>90750</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>89</v>
+      </c>
+      <c r="C116" s="1">
+        <v>538450</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>142</v>
+      </c>
+      <c r="C117" s="1">
+        <v>859100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>120</v>
+      </c>
+      <c r="C118" s="1">
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>127</v>
+      </c>
+      <c r="C119" s="1">
+        <v>768350</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44</v>
+      </c>
+      <c r="C120" s="1">
+        <v>266200</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>739</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4470950</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>22</v>
+      </c>
+      <c r="C122" s="1">
+        <v>133100</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Katovastin (Atorvastatin 20mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>60</v>
+      </c>
+      <c r="C123" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B124" s="1">
+        <v>120</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1716000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>60</v>
+      </c>
+      <c r="C125" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>80</v>
+      </c>
+      <c r="C126" s="1">
+        <v>450800</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>20</v>
+      </c>
+      <c r="C127" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1">
+        <v>84525</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1">
+        <v>84525</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>10</v>
+      </c>
+      <c r="C130" s="1">
+        <v>56350</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>190</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1070650</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>74</v>
+      </c>
+      <c r="C132" s="1">
+        <v>569800</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>120</v>
+      </c>
+      <c r="C133" s="1">
+        <v>202800</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1">
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>270</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1490400</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>440</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2428800</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B140" s="1">
+        <v>30</v>
+      </c>
+      <c r="C140" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B141" s="1">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B142" s="1">
+        <v>30</v>
+      </c>
+      <c r="C142" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B143" s="1">
+        <v>90</v>
+      </c>
+      <c r="C143" s="1">
+        <v>524700</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B144" s="1">
+        <v>30</v>
+      </c>
+      <c r="C144" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>15</v>
+      </c>
+      <c r="C145" s="1">
+        <v>87450</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>172</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1002760</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B147" s="1">
+        <v>142</v>
+      </c>
+      <c r="C147" s="1">
+        <v>827860</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>30</v>
+      </c>
+      <c r="C148" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>30</v>
+      </c>
+      <c r="C149" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>204</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3141600</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>30</v>
+      </c>
+      <c r="C151" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1">
+        <v>20930</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1">
+        <v>41860</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>14</v>
+      </c>
+      <c r="C154" s="1">
+        <v>41860</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1">
+        <v>20930</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44</v>
+      </c>
+      <c r="C156" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1">
+        <v>67620</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>88</v>
+      </c>
+      <c r="C158" s="1">
+        <v>425040</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>128</v>
+      </c>
+      <c r="C159" s="1">
+        <v>618240</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>28</v>
+      </c>
+      <c r="C160" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>30</v>
+      </c>
+      <c r="C161" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1">
+        <v>67620</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>132</v>
+      </c>
+      <c r="C163" s="1">
+        <v>943800</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>30</v>
+      </c>
+      <c r="C164" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45</v>
+      </c>
+      <c r="C165" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>30</v>
+      </c>
+      <c r="C166" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>180</v>
+      </c>
+      <c r="C167" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>7</v>
+      </c>
+      <c r="C168" s="1">
+        <v>12880</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>30</v>
+      </c>
+      <c r="C169" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>494</v>
+      </c>
+      <c r="C170" s="1">
+        <v>908960</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>120</v>
+      </c>
+      <c r="C171" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>28</v>
+      </c>
+      <c r="C172" s="1">
+        <v>51520</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>15</v>
+      </c>
+      <c r="C173" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>14</v>
+      </c>
+      <c r="C174" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>14</v>
+      </c>
+      <c r="C175" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>28</v>
+      </c>
+      <c r="C176" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>70</v>
+      </c>
+      <c r="C177" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>282</v>
+      </c>
+      <c r="C178" s="1">
+        <v>972900</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>30</v>
+      </c>
+      <c r="C179" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>30</v>
+      </c>
+      <c r="C180" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>30</v>
+      </c>
+      <c r="C181" s="1">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>10</v>
+      </c>
+      <c r="C182" s="1">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>10</v>
+      </c>
+      <c r="C183" s="1">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>10</v>
+      </c>
+      <c r="C184" s="1">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>52</v>
+      </c>
+      <c r="C185" s="1">
+        <v>110760</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>14</v>
+      </c>
+      <c r="C186" s="1">
+        <v>93940</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44</v>
+      </c>
+      <c r="C187" s="1">
+        <v>295240</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>28</v>
+      </c>
+      <c r="C188" s="1">
+        <v>187880</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>70</v>
+      </c>
+      <c r="C189" s="1">
+        <v>469700</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>56</v>
+      </c>
+      <c r="C190" s="1">
+        <v>375760</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>578</v>
+      </c>
+      <c r="C191" s="1">
+        <v>3878380</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>58</v>
+      </c>
+      <c r="C192" s="1">
+        <v>389180</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>58</v>
+      </c>
+      <c r="C193" s="1">
+        <v>389180</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>15</v>
+      </c>
+      <c r="C194" s="1">
+        <v>100650</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>60</v>
+      </c>
+      <c r="C195" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>15</v>
+      </c>
+      <c r="C196" s="1">
+        <v>60375</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45</v>
+      </c>
+      <c r="C197" s="1">
+        <v>181125</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>28</v>
+      </c>
+      <c r="C198" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>30</v>
+      </c>
+      <c r="C199" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>30</v>
+      </c>
+      <c r="C200" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>27</v>
+      </c>
+      <c r="C201" s="1">
+        <v>205470</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44</v>
+      </c>
+      <c r="C202" s="1">
+        <v>370260</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>30</v>
+      </c>
+      <c r="C203" s="1">
+        <v>252450</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>30</v>
+      </c>
+      <c r="C204" s="1">
+        <v>252450</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>314</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2642310</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>30</v>
+      </c>
+      <c r="C206" s="1">
+        <v>252450</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>30</v>
+      </c>
+      <c r="C207" s="1">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>90</v>
+      </c>
+      <c r="C208" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>10</v>
+      </c>
+      <c r="C209" s="1">
+        <v>33350</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>88</v>
+      </c>
+      <c r="C210" s="1">
+        <v>293480</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>30</v>
+      </c>
+      <c r="C211" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45</v>
+      </c>
+      <c r="C212" s="1">
+        <v>779625</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>60</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1039500</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>30</v>
+      </c>
+      <c r="C214" s="1">
+        <v>519750</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>120</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2079000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>90</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1559250</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>479</v>
+      </c>
+      <c r="C217" s="1">
+        <v>8298675</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1">
+        <v>259875</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>22</v>
+      </c>
+      <c r="C219" s="1">
+        <v>381150</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>30</v>
+      </c>
+      <c r="C220" s="1">
+        <v>519750</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>60</v>
+      </c>
+      <c r="C221" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>60</v>
+      </c>
+      <c r="C222" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>14</v>
+      </c>
+      <c r="C223" s="1">
+        <v>123200</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>14</v>
+      </c>
+      <c r="C224" s="1">
+        <v>123200</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>300</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>190</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1672000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C227" s="1">
+        <v>8852800</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>120</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>74</v>
+      </c>
+      <c r="C229" s="1">
+        <v>651200</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B230" s="1">
+        <v>90</v>
+      </c>
+      <c r="C230" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>7</v>
+      </c>
+      <c r="C231" s="1">
+        <v>20125</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B232" s="1">
+        <v>15</v>
+      </c>
+      <c r="C232" s="1">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45</v>
+      </c>
+      <c r="C233" s="1">
+        <v>129375</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B234" s="1">
+        <v>7</v>
+      </c>
+      <c r="C234" s="1">
+        <v>20125</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B235" s="1">
+        <v>571</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1641625</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B236" s="1">
+        <v>51</v>
+      </c>
+      <c r="C236" s="1">
+        <v>146625</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>22</v>
+      </c>
+      <c r="C237" s="1">
+        <v>63250</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B238" s="1">
+        <v>30</v>
+      </c>
+      <c r="C238" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Reinal (Flunarizil 10mg)</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66</v>
+      </c>
+      <c r="C239" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Reprat (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B240" s="1">
+        <v>30</v>
+      </c>
+      <c r="C240" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Reprat (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B241" s="1">
+        <v>156</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2574000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Reprat (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B242" s="1">
+        <v>28</v>
+      </c>
+      <c r="C242" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B243" s="1">
+        <v>7</v>
+      </c>
+      <c r="C243" s="1">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B244" s="1">
+        <v>120</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B245" s="1">
+        <v>14</v>
+      </c>
+      <c r="C245" s="1">
+        <v>123200</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B246" s="1">
+        <v>30</v>
+      </c>
+      <c r="C246" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B247" s="1">
+        <v>30</v>
+      </c>
+      <c r="C247" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45</v>
+      </c>
+      <c r="C248" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>30</v>
+      </c>
+      <c r="C249" s="1">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>120</v>
+      </c>
+      <c r="C250" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>67</v>
+      </c>
+      <c r="C251" s="1">
+        <v>515900</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>15</v>
+      </c>
+      <c r="C252" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>15</v>
+      </c>
+      <c r="C253" s="1">
+        <v>130350</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>132</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1147080</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>30</v>
+      </c>
+      <c r="C256" s="1">
+        <v>260700</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>15</v>
+      </c>
+      <c r="C257" s="1">
+        <v>130350</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>30</v>
+      </c>
+      <c r="C259" s="1">
+        <v>162150</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>384</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2075520</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>14</v>
+      </c>
+      <c r="C261" s="1">
+        <v>75670</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>30</v>
+      </c>
+      <c r="C262" s="1">
+        <v>162150</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Seretide 25/125 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1">
+        <v>241800</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B264" s="1">
+        <v>15</v>
+      </c>
+      <c r="C264" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B265" s="1">
+        <v>28</v>
+      </c>
+      <c r="C265" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>15</v>
+      </c>
+      <c r="C266" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>7</v>
+      </c>
+      <c r="C267" s="1">
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>30</v>
+      </c>
+      <c r="C268" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>539</v>
+      </c>
+      <c r="C269" s="1">
+        <v>7707700</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>58</v>
+      </c>
+      <c r="C270" s="1">
+        <v>829400</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B271" s="1">
+        <v>30</v>
+      </c>
+      <c r="C271" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B272" s="1">
+        <v>28</v>
+      </c>
+      <c r="C272" s="1">
+        <v>400400</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B273" s="1">
+        <v>71</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1015300</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Stadnolol (Atenolol 50mg)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>4</v>
+      </c>
+      <c r="C274" s="1">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B275" s="1">
+        <v>30</v>
+      </c>
+      <c r="C275" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B276" s="1">
+        <v>6</v>
+      </c>
+      <c r="C276" s="1">
+        <v>31050</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B277" s="1">
+        <v>10</v>
+      </c>
+      <c r="C277" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B278" s="1">
+        <v>30</v>
+      </c>
+      <c r="C278" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B279" s="1">
+        <v>150</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B280" s="1">
+        <v>120</v>
+      </c>
+      <c r="C280" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B281" s="1">
+        <v>45</v>
+      </c>
+      <c r="C281" s="1">
+        <v>341550</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B282" s="1">
+        <v>333</v>
+      </c>
+      <c r="C282" s="1">
+        <v>2527470</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B283" s="1">
+        <v>36</v>
+      </c>
+      <c r="C283" s="1">
+        <v>273240</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B284" s="1">
+        <v>30</v>
+      </c>
+      <c r="C284" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B285" s="1">
+        <v>60</v>
+      </c>
+      <c r="C285" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B286" s="1">
+        <v>345</v>
+      </c>
+      <c r="C286" s="1">
+        <v>555450</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B287" s="1">
+        <v>14</v>
+      </c>
+      <c r="C287" s="1">
+        <v>57960</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B288" s="1">
+        <v>60</v>
+      </c>
+      <c r="C288" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B289" s="1">
+        <v>14</v>
+      </c>
+      <c r="C289" s="1">
+        <v>57960</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B290" s="1">
+        <v>376</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1556640</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B291" s="1">
+        <v>44</v>
+      </c>
+      <c r="C291" s="1">
+        <v>182160</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B292" s="1">
+        <v>30</v>
+      </c>
+      <c r="C292" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B293" s="1">
+        <v>60</v>
+      </c>
+      <c r="C293" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B294" s="1">
+        <v>120</v>
+      </c>
+      <c r="C294" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B295" s="1">
+        <v>120</v>
+      </c>
+      <c r="C295" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B296" s="1">
+        <v>134</v>
+      </c>
+      <c r="C296" s="1">
+        <v>261970</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B297" s="1">
+        <v>208</v>
+      </c>
+      <c r="C297" s="1">
+        <v>406640</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B298" s="1">
+        <v>998</v>
+      </c>
+      <c r="C298" s="1">
+        <v>1951090</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B299" s="1">
+        <v>300</v>
+      </c>
+      <c r="C299" s="1">
+        <v>586500</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B300" s="1">
+        <v>178</v>
+      </c>
+      <c r="C300" s="1">
+        <v>347990</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B301" s="1">
+        <v>60</v>
+      </c>
+      <c r="C301" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B302" s="1">
+        <v>14</v>
+      </c>
+      <c r="C302" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B303" s="1">
+        <v>14</v>
+      </c>
+      <c r="C303" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B304" s="1">
+        <v>14</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B305" s="1">
+        <v>98</v>
+      </c>
+      <c r="C305" s="1">
+        <v>8085000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B306" s="1">
+        <v>14</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B307" s="1">
+        <v>14</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B308" s="1">
+        <v>60</v>
+      </c>
+      <c r="C308" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B309" s="1">
+        <v>28</v>
+      </c>
+      <c r="C309" s="1">
+        <v>127120</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B310" s="1">
+        <v>64</v>
+      </c>
+      <c r="C310" s="1">
+        <v>290560</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B311" s="1">
+        <v>490</v>
+      </c>
+      <c r="C311" s="1">
+        <v>2224600</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B312" s="1">
+        <v>60</v>
+      </c>
+      <c r="C312" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B313" s="1">
+        <v>60</v>
+      </c>
+      <c r="C313" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B314" s="1">
+        <v>60</v>
+      </c>
+      <c r="C314" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Upsa - C (Vitamin C 1000mg)</v>
+      </c>
+      <c r="B315" s="1">
+        <v>10</v>
+      </c>
+      <c r="C315" s="1">
+        <v>38300</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B316" s="1">
+        <v>60</v>
+      </c>
+      <c r="C316" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B317" s="1">
+        <v>14</v>
+      </c>
+      <c r="C317" s="1">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B318" s="1">
+        <v>150</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B319" s="1">
+        <v>30</v>
+      </c>
+      <c r="C319" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B320" s="1">
+        <v>561</v>
+      </c>
+      <c r="C320" s="1">
+        <v>4813380</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B321" s="1">
+        <v>195</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1673100</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B322" s="1">
+        <v>180</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1544400</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B323" s="1">
+        <v>90</v>
+      </c>
+      <c r="C323" s="1">
+        <v>772200</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B324" s="1">
+        <v>30</v>
+      </c>
+      <c r="C324" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B325" s="1">
+        <v>14</v>
+      </c>
+      <c r="C325" s="1">
+        <v>354200</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B326" s="1">
+        <v>28</v>
+      </c>
+      <c r="C326" s="1">
+        <v>708400</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B327" s="1">
+        <v>87</v>
+      </c>
+      <c r="C327" s="1">
+        <v>2201100</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B328" s="1">
+        <v>24</v>
+      </c>
+      <c r="C328" s="1">
+        <v>607200</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B329" s="1">
+        <v>28</v>
+      </c>
+      <c r="C329" s="1">
+        <v>708400</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B330" s="1">
+        <v>14</v>
+      </c>
+      <c r="C330" s="1">
+        <v>136444</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B331" s="1">
+        <v>14</v>
+      </c>
+      <c r="C331" s="1">
+        <v>136444</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B332" s="1">
+        <v>186</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1812756</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1908</v>
+      </c>
+      <c r="C334" s="1">
+        <v>22247280</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B335" s="1">
+        <v>74</v>
+      </c>
+      <c r="C335" s="1">
+        <v>862840</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B336" s="1">
+        <v>150</v>
+      </c>
+      <c r="C336" s="1">
+        <v>1749000</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B337" s="1">
+        <v>120</v>
+      </c>
+      <c r="C337" s="1">
+        <v>1399200</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B338" s="1">
+        <v>90</v>
+      </c>
+      <c r="C338" s="1">
+        <v>1049400</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B339" s="1">
+        <v>60</v>
+      </c>
+      <c r="C339" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B340" s="1">
+        <v>404</v>
+      </c>
+      <c r="C340" s="1">
+        <v>4710640</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B341" s="1">
+        <v>90</v>
+      </c>
+      <c r="C341" s="1">
+        <v>1049400</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B342" s="1">
+        <v>90</v>
+      </c>
+      <c r="C342" s="1">
+        <v>1049400</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B343" s="1">
+        <v>14</v>
+      </c>
+      <c r="C343" s="1">
+        <v>163240</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B344" s="1">
+        <v>289</v>
+      </c>
+      <c r="C344" s="1">
+        <v>2797520</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B345" s="1">
+        <v>5</v>
+      </c>
+      <c r="C345" s="1">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B346" s="1">
+        <v>30</v>
+      </c>
+      <c r="C346" s="1">
+        <v>290400</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B347" s="1">
+        <v>105</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1016400</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B348" s="1">
+        <v>30</v>
+      </c>
+      <c r="C348" s="1">
+        <v>290400</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B349" s="1">
+        <v>22</v>
+      </c>
+      <c r="C349" s="1">
+        <v>212960</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B85" s="1">
-        <v>34398</v>
-      </c>
-      <c r="C85" s="1">
-        <v>NaN</v>
+      <c r="B350" s="1">
+        <v>30271</v>
+      </c>
+      <c r="C350" s="1">
+        <v>255589305</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C85"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C350"/>
   </ignoredErrors>
 </worksheet>
 </file>